--- a/complete_test_api_test/test_cases/test_api.xlsx
+++ b/complete_test_api_test/test_cases/test_api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="7515" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
   <si>
     <t>Caseid</t>
   </si>
@@ -51,25 +51,55 @@
     <t>正常注册</t>
   </si>
   <si>
+    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
     <t>{'mobilephone':'tel','pwd':'123456'}</t>
   </si>
   <si>
+    <t>{'status':'1','code':'10001','data':None,'msg':'注册成功'}</t>
+  </si>
+  <si>
     <t>不输入手机号</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
+    <t>{'mobilephone':'','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':'0','code':'20103','data':None,'msg':'手机号不能为空'}</t>
+  </si>
+  <si>
     <t>不输入密码</t>
   </si>
   <si>
+    <t>{'mobilephone':'18688775656','pwd':''}</t>
+  </si>
+  <si>
+    <t>{'status':'0','code':'20103','data':None,'msg':'密码不能为空'}</t>
+  </si>
+  <si>
     <t>输入已存在的手机号</t>
   </si>
   <si>
+    <t>{'mobilephone':'18688775656','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':'0','code':'20110','data':None,'msg':'手机号码已被注册'}</t>
+  </si>
+  <si>
     <t>输入错误的手机号</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'186887756569','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'status':'0','code':'20109','data':None,'msg':'手机号码格式不正确'}</t>
   </si>
   <si>
     <t>{'mobilephone':'18810903977','pwd':'123456'}</t>
@@ -125,12 +155,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +169,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,22 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,106 +321,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,19 +337,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,19 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,91 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,36 +518,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +534,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,71 +630,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -591,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,138 +654,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1087,118 +1150,172 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="1" max="1" width="5.81818181818182" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.45454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.0909090909091" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.9090909090909" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.63636363636364" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.2727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.3636363636364" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="D6" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/register"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1214,10 +1331,10 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="6" max="6" width="37.625" customWidth="1"/>
-    <col min="7" max="8" width="26.375" customWidth="1"/>
+    <col min="6" max="6" width="37.6272727272727" customWidth="1"/>
+    <col min="7" max="8" width="26.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1248,7 +1365,7 @@
     </row>
     <row r="2" spans="6:6">
       <c r="F2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1266,11 +1383,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
     <col min="7" max="7" width="45.5" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="12.3727272727273" customWidth="1"/>
+    <col min="9" max="9" width="17.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1293,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1307,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1318,10 +1435,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1340,17 +1457,17 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="52.625" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="52.6272727272727" customWidth="1"/>
+    <col min="7" max="7" width="30.3727272727273" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="14.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1373,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1387,13 +1504,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1401,16 +1518,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1418,13 +1535,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1442,9 +1559,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="12.6272727272727" customWidth="1"/>
     <col min="7" max="7" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1468,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1482,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1493,13 +1610,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1507,10 +1624,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1528,14 +1645,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="12.625"/>
+    <col min="2" max="2" width="12.6272727272727"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>18810903972</v>
